--- a/W_and_Trans.xlsx
+++ b/W_and_Trans.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4A849-B264-4D13-A324-59D870D1A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E101B3-FA1C-48D8-BB46-76BE785D3A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{086612A4-F025-49F7-AD46-00C25B0C7FB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{086612A4-F025-49F7-AD46-00C25B0C7FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Trans=</t>
   </si>
@@ -48,13 +47,24 @@
   <si>
     <t>AvgTrans=</t>
   </si>
+  <si>
+    <t>Opacity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,54 +239,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$G$23</c:f>
+              <c:f>Sheet1!$B$23:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81818181818181823</c:v>
+                  <c:v>0.97307692307692306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66363636363636358</c:v>
+                  <c:v>0.94615384615384623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59090909090909083</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40909090909090912</c:v>
+                  <c:v>0.91923076923076918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2818181818181818</c:v>
+                  <c:v>0.89230769230769225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86538461538461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$G$24</c:f>
+              <c:f>Sheet1!$B$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.34999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7</c:v>
+                  <c:v>0.69999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>1.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9</c:v>
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,54 +378,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$G$26</c:f>
+              <c:f>Sheet1!$B$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:f>Sheet1!$B$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4</c:v>
+                  <c:v>0.20000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6</c:v>
+                  <c:v>0.39999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,6 +710,636 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6035651793525815E-2"/>
+                  <c:y val="3.338992604232497E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7292142288007512E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5350095083164838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4218079084017114E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11394425934921784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14458122881110755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-595D-4482-823B-3BB46AF293B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8814523184601928E-3"/>
+                  <c:y val="0.14653287102669649"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1293294387550578E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10536051565782628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16251892949777494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22314355131420971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2876820724517809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-595D-4482-823B-3BB46AF293B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1565151456"/>
+        <c:axId val="1550629744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1565151456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Opacity * filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> profile</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550629744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1550629744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>EW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565151456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1054,6 +1695,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2086,19 +2767,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2119,6 +3316,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F733C59-551B-4700-B3E0-8BF67F74CF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2465,35 +3700,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68D9146-4D24-460C-BEED-79F38CC0D438}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F1" s="1">
+        <f>-LN(E1)</f>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G1" s="1">
         <v>0.8</v>
       </c>
-      <c r="D1">
-        <v>0.6</v>
-      </c>
-      <c r="E1">
-        <v>0.4</v>
-      </c>
-      <c r="F1">
-        <v>0.2</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
+      <c r="H1" s="1">
+        <v>0.75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2516,11 +3755,15 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <f t="shared" ref="F2:F21" si="0">-LN(E2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <f>E2</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>F2</f>
+      <c r="H2">
+        <f>G2</f>
         <v>1</v>
       </c>
     </row>
@@ -2532,23 +3775,27 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D21" si="0">B3</f>
+        <f t="shared" ref="C3:D21" si="1">B3</f>
         <v>1</v>
       </c>
       <c r="D3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:H7" si="2">D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:G7" si="1">D3</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2560,23 +3807,27 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2588,23 +3839,27 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2616,23 +3871,27 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>E6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2644,23 +3903,27 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>E7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2674,23 +3937,27 @@
       </c>
       <c r="C8">
         <f>C$1</f>
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="B8:G14" si="2">D$1</f>
-        <v>0.6</v>
+        <f t="shared" ref="B8:H14" si="3">D$1</f>
+        <v>0.9</v>
       </c>
       <c r="E8">
         <f>E$1</f>
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="F8">
-        <f>F$1</f>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
       </c>
       <c r="G8">
         <f>G$1</f>
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <f>H$1</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2698,27 +3965,32 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2726,28 +3998,32 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2755,27 +4031,32 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2783,28 +4064,32 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2812,31 +4097,32 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
       <c r="H13">
-        <f>-LN(C13)</f>
-        <v>0.10536051565782628</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2847,23 +4133,28 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f t="shared" si="3"/>
+        <v>0.9</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.16251892949777494</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2874,22 +4165,26 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:H17" si="4">D15</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ref="E15:G17" si="3">D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f>E15</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2901,27 +4196,31 @@
         <v>1</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f>E16</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2929,26 +4228,31 @@
         <v>1</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="5">C17</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>E17</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2956,26 +4260,30 @@
         <v>1</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ref="F18:G21" si="4">E18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f>E18</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H21" si="6">G18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2983,11 +4291,11 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E19">
@@ -2995,15 +4303,19 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f>E19</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3011,11 +4323,11 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E20">
@@ -3023,15 +4335,19 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f>E20</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3039,11 +4355,11 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E21">
@@ -3051,166 +4367,202 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f>E21</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:G23" si="5">AVERAGE(B8:B18)</f>
+        <f>AVERAGE(B8:B20)</f>
         <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
-        <v>0.81818181818181823</v>
+        <f t="shared" ref="C23:H23" si="7">AVERAGE(C8:C20)</f>
+        <v>0.97307692307692306</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
-        <v>0.66363636363636358</v>
+        <f t="shared" si="7"/>
+        <v>0.94615384615384623</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
-        <v>0.59090909090909083</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>0.40909090909090912</v>
+        <f t="shared" si="7"/>
+        <v>0.91923076923076918</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>0.2818181818181818</v>
+        <f t="shared" si="7"/>
+        <v>0.89230769230769225</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:G24" si="6">SUM($B8:$B18)-SUM(B8:B18)</f>
+        <f>SUM($B8:$B20)-SUM(B8:B20)</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C24:H24" si="8">SUM($B8:$B20)-SUM(C8:C20)</f>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="E24">
+        <f>SUM($B8:$B20)-SUM(E8:E20)</f>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f>-LN(B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:H25" si="9">-LN(C23)</f>
+        <v>2.7292142288007512E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>5.5350095083164838E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>8.4218079084017114E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>0.11394425934921784</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>0.14458122881110755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f>AVERAGE(F8:F20)</f>
+        <v>8.7510192806494205E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="6"/>
-        <v>3.7</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="6"/>
-        <v>4.5000000000000009</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>7.9</v>
+      <c r="B28">
+        <f t="shared" ref="B28:H28" si="10">AVERAGE(B11:B14)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C11:C14)</f>
+        <v>0.95</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>0.85</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ref="B26:G26" si="7">AVERAGE(B11:B14)</f>
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="7"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:H29" si="11">SUM($B11:$B14)-SUM(B11:B14)</f>
         <v>0</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="11"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="11"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27:G27" si="8">SUM($B11:$B14)-SUM(B11:B14)</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <f>-LN(B28)</f>
         <v>0</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="8"/>
-        <v>1.4</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="8"/>
-        <v>2.4</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="8"/>
-        <v>3.2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="8"/>
-        <v>4</v>
+      <c r="C30">
+        <f t="shared" ref="C30:H30" si="12">-LN(C28)</f>
+        <v>5.1293294387550578E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="12"/>
+        <v>0.10536051565782628</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="12"/>
+        <v>0.16251892949777494</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="12"/>
+        <v>0.22314355131420971</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="12"/>
+        <v>0.2876820724517809</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E30">
-        <v>0.8</v>
-      </c>
-      <c r="F30">
-        <f>-LN(E30)</f>
-        <v>0.22314355131420971</v>
-      </c>
-      <c r="G30">
-        <f>1-EXP(-F30)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>632</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>647</v>
-      </c>
-      <c r="B34">
-        <f>(B35-B33)/(A35-A33)*(A34-A33)</f>
-        <v>8.125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>656</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f>AVERAGE(F11:F14)</f>
+        <v>0.16251892949777494</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +4575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62950ADC-8F04-4F65-9C32-C3BB38AA4BBE}">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
